--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2427,28 +2427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.261502702129</v>
+        <v>227.6097364159411</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.8545670536609</v>
+        <v>311.4256827970274</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.0130083735276</v>
+        <v>281.7036527196624</v>
       </c>
       <c r="AD2" t="n">
-        <v>167261.502702129</v>
+        <v>227609.7364159411</v>
       </c>
       <c r="AE2" t="n">
-        <v>228854.5670536609</v>
+        <v>311425.6827970275</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.401187652213579e-06</v>
+        <v>3.461706790057689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.65625</v>
       </c>
       <c r="AH2" t="n">
-        <v>207013.0083735276</v>
+        <v>281703.6527196624</v>
       </c>
     </row>
     <row r="3">
@@ -2533,28 +2533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.3674612632328</v>
+        <v>177.4490488946291</v>
       </c>
       <c r="AB3" t="n">
-        <v>183.8474883742967</v>
+        <v>242.7936171970505</v>
       </c>
       <c r="AC3" t="n">
-        <v>166.301342115476</v>
+        <v>219.6217351348163</v>
       </c>
       <c r="AD3" t="n">
-        <v>134367.4612632328</v>
+        <v>177449.0488946291</v>
       </c>
       <c r="AE3" t="n">
-        <v>183847.4883742967</v>
+        <v>242793.6171970505</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.918505502901905e-06</v>
+        <v>4.207505526235158e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>166301.342115476</v>
+        <v>219621.7351348163</v>
       </c>
     </row>
     <row r="4">
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.5050560613121</v>
+        <v>163.671895038729</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.880334010883</v>
+        <v>223.943107486286</v>
       </c>
       <c r="AC4" t="n">
-        <v>149.1443863439321</v>
+        <v>202.5702916139846</v>
       </c>
       <c r="AD4" t="n">
-        <v>120505.0560613121</v>
+        <v>163671.895038729</v>
       </c>
       <c r="AE4" t="n">
-        <v>164880.334010883</v>
+        <v>223943.107486286</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.127248612530823e-06</v>
+        <v>4.508443039100524e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.713541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>149144.3863439321</v>
+        <v>202570.2916139846</v>
       </c>
     </row>
     <row r="5">
@@ -2745,28 +2745,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>117.7404252941124</v>
+        <v>160.7366720709371</v>
       </c>
       <c r="AB5" t="n">
-        <v>161.0976442283007</v>
+        <v>219.9270059288569</v>
       </c>
       <c r="AC5" t="n">
-        <v>145.7227111651598</v>
+        <v>198.9374811525613</v>
       </c>
       <c r="AD5" t="n">
-        <v>117740.4252941124</v>
+        <v>160736.6720709371</v>
       </c>
       <c r="AE5" t="n">
-        <v>161097.6442283007</v>
+        <v>219927.0059288569</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.230161323070228e-06</v>
+        <v>4.656808631655975e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.4140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>145722.7111651598</v>
+        <v>198937.4811525613</v>
       </c>
     </row>
     <row r="6">
@@ -2851,28 +2851,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>115.6195175431538</v>
+        <v>158.6157643199785</v>
       </c>
       <c r="AB6" t="n">
-        <v>158.1957246755944</v>
+        <v>217.0250863761506</v>
       </c>
       <c r="AC6" t="n">
-        <v>143.0977467416932</v>
+        <v>196.3125167290947</v>
       </c>
       <c r="AD6" t="n">
-        <v>115619.5175431538</v>
+        <v>158615.7643199785</v>
       </c>
       <c r="AE6" t="n">
-        <v>158195.7246755944</v>
+        <v>217025.0863761506</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.284967184795454e-06</v>
+        <v>4.735820292195825e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.2578125</v>
       </c>
       <c r="AH6" t="n">
-        <v>143097.7467416932</v>
+        <v>196312.5167290947</v>
       </c>
     </row>
     <row r="7">
@@ -2957,28 +2957,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>115.4274548610159</v>
+        <v>158.4237016378406</v>
       </c>
       <c r="AB7" t="n">
-        <v>157.9329360406859</v>
+        <v>216.7622977412421</v>
       </c>
       <c r="AC7" t="n">
-        <v>142.8600382852741</v>
+        <v>196.0748082726756</v>
       </c>
       <c r="AD7" t="n">
-        <v>115427.4548610159</v>
+        <v>158423.7016378406</v>
       </c>
       <c r="AE7" t="n">
-        <v>157932.9360406859</v>
+        <v>216762.2977412421</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.282913132056178e-06</v>
+        <v>4.732859037456682e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.2578125</v>
       </c>
       <c r="AH7" t="n">
-        <v>142860.0382852741</v>
+        <v>196074.8082726756</v>
       </c>
     </row>
   </sheetData>
@@ -3254,28 +3254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.6987402769834</v>
+        <v>194.0326894064088</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.61495598788</v>
+        <v>265.4840857638403</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.8503005392763</v>
+        <v>240.1466572278715</v>
       </c>
       <c r="AD2" t="n">
-        <v>143698.7402769834</v>
+        <v>194032.6894064088</v>
       </c>
       <c r="AE2" t="n">
-        <v>196614.95598788</v>
+        <v>265484.0857638403</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.757574467307248e-06</v>
+        <v>4.036985283073907e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.40625</v>
       </c>
       <c r="AH2" t="n">
-        <v>177850.3005392763</v>
+        <v>240146.6572278715</v>
       </c>
     </row>
     <row r="3">
@@ -3360,28 +3360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.8107581824197</v>
+        <v>157.8978759574343</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.4573885551794</v>
+        <v>216.0428398475186</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.3344377878582</v>
+        <v>195.4240144305635</v>
       </c>
       <c r="AD3" t="n">
-        <v>115810.7581824197</v>
+        <v>157897.8759574343</v>
       </c>
       <c r="AE3" t="n">
-        <v>158457.3885551794</v>
+        <v>216042.8398475187</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.240165694287534e-06</v>
+        <v>4.743480684796425e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.700520833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>143334.4377878582</v>
+        <v>195424.0144305635</v>
       </c>
     </row>
     <row r="4">
@@ -3466,28 +3466,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.8770320689351</v>
+        <v>145.5468157974978</v>
       </c>
       <c r="AB4" t="n">
-        <v>153.0750909429645</v>
+        <v>199.1435744463843</v>
       </c>
       <c r="AC4" t="n">
-        <v>138.4658191056492</v>
+        <v>180.13759120104</v>
       </c>
       <c r="AD4" t="n">
-        <v>111877.0320689351</v>
+        <v>145546.8157974978</v>
       </c>
       <c r="AE4" t="n">
-        <v>153075.0909429645</v>
+        <v>199143.5744463843</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.414937799805563e-06</v>
+        <v>4.999340472531219e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.205729166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>138465.8191056492</v>
+        <v>180137.59120104</v>
       </c>
     </row>
     <row r="5">
@@ -3572,28 +3572,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.3026438409645</v>
+        <v>143.3044207614075</v>
       </c>
       <c r="AB5" t="n">
-        <v>138.6067464603783</v>
+        <v>196.0754306305199</v>
       </c>
       <c r="AC5" t="n">
-        <v>125.3783131140275</v>
+        <v>177.3622667247939</v>
       </c>
       <c r="AD5" t="n">
-        <v>101302.6438409645</v>
+        <v>143304.4207614075</v>
       </c>
       <c r="AE5" t="n">
-        <v>138606.7464603783</v>
+        <v>196075.4306305199</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.49288258518995e-06</v>
+        <v>5.113448706132755e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.997395833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>125378.3131140275</v>
+        <v>177362.2667247939</v>
       </c>
     </row>
     <row r="6">
@@ -3678,28 +3678,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>101.413723832531</v>
+        <v>143.4155007529739</v>
       </c>
       <c r="AB6" t="n">
-        <v>138.7587310053428</v>
+        <v>196.2274151754845</v>
       </c>
       <c r="AC6" t="n">
-        <v>125.5157924673323</v>
+        <v>177.4997460780987</v>
       </c>
       <c r="AD6" t="n">
-        <v>101413.723832531</v>
+        <v>143415.5007529739</v>
       </c>
       <c r="AE6" t="n">
-        <v>138758.7310053428</v>
+        <v>196227.4151754845</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.493148196292561e-06</v>
+        <v>5.113837550794967e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.997395833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>125515.7924673323</v>
+        <v>177499.7460780987</v>
       </c>
     </row>
   </sheetData>
@@ -3975,28 +3975,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.46801300980171</v>
+        <v>128.2191158264288</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.4140824501257</v>
+        <v>175.4350509018086</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.7310542303616</v>
+        <v>158.6917758684293</v>
       </c>
       <c r="AD2" t="n">
-        <v>89468.01300980171</v>
+        <v>128219.1158264288</v>
       </c>
       <c r="AE2" t="n">
-        <v>122414.0824501257</v>
+        <v>175435.0509018086</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.91770219432085e-06</v>
+        <v>6.061168868016599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.958333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>110731.0542303616</v>
+        <v>158691.7758684293</v>
       </c>
     </row>
     <row r="3">
@@ -4081,28 +4081,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.6250477943307</v>
+        <v>127.3761506109578</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.2607002533182</v>
+        <v>174.2816687050011</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.6877492116349</v>
+        <v>157.6484708497026</v>
       </c>
       <c r="AD3" t="n">
-        <v>88625.04779433069</v>
+        <v>127376.1506109578</v>
       </c>
       <c r="AE3" t="n">
-        <v>121260.7002533182</v>
+        <v>174281.6687050011</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.997779572359127e-06</v>
+        <v>6.185058456026017e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.776041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>109687.7492116349</v>
+        <v>157648.4708497027</v>
       </c>
     </row>
   </sheetData>
@@ -4378,28 +4378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.275799149512</v>
+        <v>147.3831267082343</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.7794810705429</v>
+        <v>201.6560960467725</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.7710534035057</v>
+        <v>182.4103212662343</v>
       </c>
       <c r="AD2" t="n">
-        <v>107275.7991495119</v>
+        <v>147383.1267082343</v>
       </c>
       <c r="AE2" t="n">
-        <v>146779.4810705429</v>
+        <v>201656.0960467725</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.448084409404951e-06</v>
+        <v>5.211069170603733e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.739583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>132771.0534035057</v>
+        <v>182410.3212662343</v>
       </c>
     </row>
     <row r="3">
@@ -4484,28 +4484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.19003334542855</v>
+        <v>133.2120200495793</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.506714877276</v>
+        <v>182.266562731308</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.3376529662208</v>
+        <v>164.8712977970106</v>
       </c>
       <c r="AD3" t="n">
-        <v>93190.03334542854</v>
+        <v>133212.0200495793</v>
       </c>
       <c r="AE3" t="n">
-        <v>127506.714877276</v>
+        <v>182266.562731308</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.817615003886702e-06</v>
+        <v>5.769538529197841e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.7890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>115337.6529662208</v>
+        <v>164871.2977970106</v>
       </c>
     </row>
     <row r="4">
@@ -4590,28 +4590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>93.32746494849268</v>
+        <v>133.3494516526434</v>
       </c>
       <c r="AB4" t="n">
-        <v>127.6947548596427</v>
+        <v>182.4546027136747</v>
       </c>
       <c r="AC4" t="n">
-        <v>115.5077466765862</v>
+        <v>165.041391507376</v>
       </c>
       <c r="AD4" t="n">
-        <v>93327.46494849268</v>
+        <v>133349.4516526434</v>
       </c>
       <c r="AE4" t="n">
-        <v>127694.7548596427</v>
+        <v>182454.6027136747</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.816687053175113e-06</v>
+        <v>5.768136122884408e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.7890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>115507.7466765862</v>
+        <v>165041.391507376</v>
       </c>
     </row>
   </sheetData>
@@ -4887,28 +4887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.02499286367154</v>
+        <v>122.7337101948052</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.3349462739785</v>
+        <v>167.9296769176079</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.2321022787427</v>
+        <v>151.9027042434198</v>
       </c>
       <c r="AD2" t="n">
-        <v>85024.99286367155</v>
+        <v>122733.7101948052</v>
       </c>
       <c r="AE2" t="n">
-        <v>116334.9462739785</v>
+        <v>167929.6769176079</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.082883129886552e-06</v>
+        <v>6.452947752757822e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.919270833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>105232.1022787427</v>
+        <v>151902.7042434198</v>
       </c>
     </row>
   </sheetData>
@@ -5184,28 +5184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.3748900896153</v>
+        <v>198.2199860042566</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.6448263418041</v>
+        <v>271.2133296995012</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.4001271260908</v>
+        <v>245.3291101633591</v>
       </c>
       <c r="AD2" t="n">
-        <v>147374.8900896153</v>
+        <v>198219.9860042566</v>
       </c>
       <c r="AE2" t="n">
-        <v>201644.8263418041</v>
+        <v>271213.3296995012</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.659985728967882e-06</v>
+        <v>3.877956722954508e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.71875</v>
       </c>
       <c r="AH2" t="n">
-        <v>182400.1271260908</v>
+        <v>245329.1101633591</v>
       </c>
     </row>
     <row r="3">
@@ -5290,28 +5290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.2714947024023</v>
+        <v>160.6424079646034</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.8242768218514</v>
+        <v>219.7980296199323</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.3799949638175</v>
+        <v>198.8208141615411</v>
       </c>
       <c r="AD3" t="n">
-        <v>118271.4947024023</v>
+        <v>160642.4079646034</v>
       </c>
       <c r="AE3" t="n">
-        <v>161824.2768218514</v>
+        <v>219798.0296199323</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.157864111077345e-06</v>
+        <v>4.603806789775831e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.869791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>146379.9949638175</v>
+        <v>198820.8141615411</v>
       </c>
     </row>
     <row r="4">
@@ -5396,28 +5396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.3996336451862</v>
+        <v>156.5999547067951</v>
       </c>
       <c r="AB4" t="n">
-        <v>156.5266257089167</v>
+        <v>214.2669667321507</v>
       </c>
       <c r="AC4" t="n">
-        <v>141.5879442377995</v>
+        <v>193.8176281528721</v>
       </c>
       <c r="AD4" t="n">
-        <v>114399.6336451862</v>
+        <v>156599.9547067951</v>
       </c>
       <c r="AE4" t="n">
-        <v>156526.6257089167</v>
+        <v>214266.9667321507</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.324437763767144e-06</v>
+        <v>4.846652234125694e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.375</v>
       </c>
       <c r="AH4" t="n">
-        <v>141587.9442377995</v>
+        <v>193817.6281528721</v>
       </c>
     </row>
     <row r="5">
@@ -5502,28 +5502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>111.6337435662129</v>
+        <v>145.5305636845248</v>
       </c>
       <c r="AB5" t="n">
-        <v>152.7422128804089</v>
+        <v>199.121337588422</v>
       </c>
       <c r="AC5" t="n">
-        <v>138.1647104581866</v>
+        <v>180.117476597592</v>
       </c>
       <c r="AD5" t="n">
-        <v>111633.7435662129</v>
+        <v>145530.5636845248</v>
       </c>
       <c r="AE5" t="n">
-        <v>152742.2128804089</v>
+        <v>199121.337588422</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.425157273057672e-06</v>
+        <v>4.993489825745944e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.1015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>138164.7104581866</v>
+        <v>180117.476597592</v>
       </c>
     </row>
     <row r="6">
@@ -5608,28 +5608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>111.6185356615999</v>
+        <v>145.5153557799118</v>
       </c>
       <c r="AB6" t="n">
-        <v>152.721404754392</v>
+        <v>199.1005294624051</v>
       </c>
       <c r="AC6" t="n">
-        <v>138.1458882305123</v>
+        <v>180.0986543699178</v>
       </c>
       <c r="AD6" t="n">
-        <v>111618.5356615999</v>
+        <v>145515.3557799118</v>
       </c>
       <c r="AE6" t="n">
-        <v>152721.404754392</v>
+        <v>199100.5294624051</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.425157273057672e-06</v>
+        <v>4.993489825745944e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.1015625</v>
       </c>
       <c r="AH6" t="n">
-        <v>138145.8882305123</v>
+        <v>180098.6543699178</v>
       </c>
     </row>
   </sheetData>
@@ -5905,28 +5905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.55273806553338</v>
+        <v>120.2942754982592</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.8982511260691</v>
+        <v>164.591934745532</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.0735759309172</v>
+        <v>148.8835114996952</v>
       </c>
       <c r="AD2" t="n">
-        <v>90552.73806553337</v>
+        <v>120294.2754982592</v>
       </c>
       <c r="AE2" t="n">
-        <v>123898.2511260691</v>
+        <v>164591.934745532</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.107756014971502e-06</v>
+        <v>6.581590038333938e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.075520833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>112073.5759309172</v>
+        <v>148883.5114996952</v>
       </c>
     </row>
   </sheetData>
@@ -6202,28 +6202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.2862321323913</v>
+        <v>166.5376370968269</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.4221500419318</v>
+        <v>227.8641421977903</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.0618606344761</v>
+        <v>206.117108275831</v>
       </c>
       <c r="AD2" t="n">
-        <v>125286.2321323913</v>
+        <v>166537.6370968269</v>
       </c>
       <c r="AE2" t="n">
-        <v>171422.1500419318</v>
+        <v>227864.1421977903</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.066354931818382e-06</v>
+        <v>4.55305626049493e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.55989583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>155061.8606344761</v>
+        <v>206117.108275831</v>
       </c>
     </row>
     <row r="3">
@@ -6308,28 +6308,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.3889868923533</v>
+        <v>141.3219276887955</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.3025936506749</v>
+        <v>193.362896147152</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.1488022566922</v>
+        <v>174.9086127254517</v>
       </c>
       <c r="AD3" t="n">
-        <v>108388.9868923533</v>
+        <v>141321.9276887955</v>
       </c>
       <c r="AE3" t="n">
-        <v>148302.5936506749</v>
+        <v>193362.896147152</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.525783238614835e-06</v>
+        <v>5.235235256410357e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.192708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>134148.8022566923</v>
+        <v>174908.6127254517</v>
       </c>
     </row>
     <row r="4">
@@ -6414,28 +6414,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.52649426277618</v>
+        <v>138.6072175180685</v>
       </c>
       <c r="AB4" t="n">
-        <v>133.4400520155417</v>
+        <v>189.648509927005</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.7047207355032</v>
+        <v>171.5487223129805</v>
       </c>
       <c r="AD4" t="n">
-        <v>97526.49426277618</v>
+        <v>138607.2175180685</v>
       </c>
       <c r="AE4" t="n">
-        <v>133440.0520155417</v>
+        <v>189648.509927005</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.644577312636227e-06</v>
+        <v>5.411625829080316e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.893229166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>120704.7207355032</v>
+        <v>171548.7223129805</v>
       </c>
     </row>
     <row r="5">
@@ -6520,28 +6520,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>97.6841281317777</v>
+        <v>138.7648513870701</v>
       </c>
       <c r="AB5" t="n">
-        <v>133.655733629425</v>
+        <v>189.8641915408883</v>
       </c>
       <c r="AC5" t="n">
-        <v>120.8998179988686</v>
+        <v>171.7438195763459</v>
       </c>
       <c r="AD5" t="n">
-        <v>97684.1281317777</v>
+        <v>138764.8513870701</v>
       </c>
       <c r="AE5" t="n">
-        <v>133655.733629425</v>
+        <v>189864.1915408883</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.641766060203889e-06</v>
+        <v>5.407451560030745e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.893229166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>120899.8179988686</v>
+        <v>171743.8195763459</v>
       </c>
     </row>
   </sheetData>
@@ -6817,28 +6817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.3575062344393</v>
+        <v>182.1501263512233</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.0433321660308</v>
+        <v>249.2258387700595</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.7149860786686</v>
+        <v>225.440074508579</v>
       </c>
       <c r="AD2" t="n">
-        <v>140357.5062344394</v>
+        <v>182150.1263512233</v>
       </c>
       <c r="AE2" t="n">
-        <v>192043.3321660308</v>
+        <v>249225.8387700595</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.854213142302908e-06</v>
+        <v>4.196956248967719e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.11979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>173714.9860786686</v>
+        <v>225440.074508579</v>
       </c>
     </row>
     <row r="3">
@@ -6923,28 +6923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.3751825674812</v>
+        <v>155.1677131757142</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.1249265488096</v>
+        <v>212.3073106832898</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.3200212782355</v>
+        <v>192.0449989269194</v>
       </c>
       <c r="AD3" t="n">
-        <v>113375.1825674812</v>
+        <v>155167.7131757142</v>
       </c>
       <c r="AE3" t="n">
-        <v>155124.9265488096</v>
+        <v>212307.3106832898</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.329517194345444e-06</v>
+        <v>4.895863517599408e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.53125</v>
       </c>
       <c r="AH3" t="n">
-        <v>140320.0212782355</v>
+        <v>192044.9989269194</v>
       </c>
     </row>
     <row r="4">
@@ -7029,28 +7029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.4475148258823</v>
+        <v>142.8816288210197</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.7509182682851</v>
+        <v>195.4969480454177</v>
       </c>
       <c r="AC4" t="n">
-        <v>135.4589008055346</v>
+        <v>176.8389937057082</v>
       </c>
       <c r="AD4" t="n">
-        <v>109447.5148258823</v>
+        <v>142881.6288210197</v>
       </c>
       <c r="AE4" t="n">
-        <v>149750.9182682851</v>
+        <v>195496.9480454177</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.511238908688594e-06</v>
+        <v>5.163074845752094e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.036458333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>135458.9008055346</v>
+        <v>176838.9937057082</v>
       </c>
     </row>
     <row r="5">
@@ -7135,28 +7135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>100.3706748494529</v>
+        <v>142.0778646031143</v>
       </c>
       <c r="AB5" t="n">
-        <v>137.3315853706227</v>
+        <v>194.3972023829053</v>
       </c>
       <c r="AC5" t="n">
-        <v>124.2248516089779</v>
+        <v>175.8442062257229</v>
       </c>
       <c r="AD5" t="n">
-        <v>100370.6748494529</v>
+        <v>142077.8646031143</v>
       </c>
       <c r="AE5" t="n">
-        <v>137331.5853706227</v>
+        <v>194397.2023829053</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.529593898749009e-06</v>
+        <v>5.190064802841158e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.997395833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>124224.8516089779</v>
+        <v>175844.2062257229</v>
       </c>
     </row>
   </sheetData>
@@ -7432,28 +7432,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.468768884767</v>
+        <v>214.8754887887208</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.6651813211419</v>
+        <v>294.0021233981176</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.31889033197</v>
+        <v>265.9429733756598</v>
       </c>
       <c r="AD2" t="n">
-        <v>163468.768884767</v>
+        <v>214875.4887887208</v>
       </c>
       <c r="AE2" t="n">
-        <v>223665.1813211419</v>
+        <v>294002.1233981177</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.482238210640708e-06</v>
+        <v>3.591233998149401e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>202318.8903319699</v>
+        <v>265942.9733756598</v>
       </c>
     </row>
     <row r="3">
@@ -7538,28 +7538,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.8256059044979</v>
+        <v>174.6503306001226</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.3696097337332</v>
+        <v>238.9642873557715</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.1553873311335</v>
+        <v>216.1578711590896</v>
       </c>
       <c r="AD3" t="n">
-        <v>131825.6059044979</v>
+        <v>174650.3306001226</v>
       </c>
       <c r="AE3" t="n">
-        <v>180369.6097337332</v>
+        <v>238964.2873557715</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.994774368407906e-06</v>
+        <v>4.332757219878926e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>163155.3873311335</v>
+        <v>216157.8711590896</v>
       </c>
     </row>
     <row r="4">
@@ -7644,28 +7644,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.7081223588225</v>
+        <v>161.6180984004678</v>
       </c>
       <c r="AB4" t="n">
-        <v>162.4216900440179</v>
+        <v>221.1330123187054</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.9203919065353</v>
+        <v>200.0283879852037</v>
       </c>
       <c r="AD4" t="n">
-        <v>118708.1223588225</v>
+        <v>161618.0984004678</v>
       </c>
       <c r="AE4" t="n">
-        <v>162421.6900440179</v>
+        <v>221133.0123187054</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.183422684280905e-06</v>
+        <v>4.605688416712717e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.622395833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>146920.3919065353</v>
+        <v>200028.3879852037</v>
       </c>
     </row>
     <row r="5">
@@ -7750,28 +7750,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>115.6936207640321</v>
+        <v>158.4330046050853</v>
       </c>
       <c r="AB5" t="n">
-        <v>158.2971159716035</v>
+        <v>216.7750264714442</v>
       </c>
       <c r="AC5" t="n">
-        <v>143.1894613947148</v>
+        <v>196.0863221907321</v>
       </c>
       <c r="AD5" t="n">
-        <v>115693.6207640322</v>
+        <v>158433.0046050853</v>
       </c>
       <c r="AE5" t="n">
-        <v>158297.1159716035</v>
+        <v>216775.0264714442</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.286311071074696e-06</v>
+        <v>4.754544505981134e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.322916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>143189.4613947148</v>
+        <v>196086.3221907321</v>
       </c>
     </row>
     <row r="6">
@@ -7856,28 +7856,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>114.1436952222546</v>
+        <v>148.4717655641219</v>
       </c>
       <c r="AB6" t="n">
-        <v>156.1764394674555</v>
+        <v>203.1456197567539</v>
       </c>
       <c r="AC6" t="n">
-        <v>141.2711792797338</v>
+        <v>183.7576869238951</v>
       </c>
       <c r="AD6" t="n">
-        <v>114143.6952222546</v>
+        <v>148471.7655641219</v>
       </c>
       <c r="AE6" t="n">
-        <v>156176.4394674555</v>
+        <v>203145.6197567539</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.338637568268703e-06</v>
+        <v>4.830249043491531e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.1796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>141271.1792797338</v>
+        <v>183757.6869238951</v>
       </c>
     </row>
     <row r="7">
@@ -7962,28 +7962,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>114.2852992363656</v>
+        <v>148.6133695782329</v>
       </c>
       <c r="AB7" t="n">
-        <v>156.3701883266903</v>
+        <v>203.3393686159887</v>
       </c>
       <c r="AC7" t="n">
-        <v>141.4464370197716</v>
+        <v>183.9329446639329</v>
       </c>
       <c r="AD7" t="n">
-        <v>114285.2992363657</v>
+        <v>148613.369578233</v>
       </c>
       <c r="AE7" t="n">
-        <v>156370.1883266903</v>
+        <v>203339.3686159888</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.334943656371465e-06</v>
+        <v>4.824904793316561e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.192708333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>141446.4370197716</v>
+        <v>183932.9446639329</v>
       </c>
     </row>
   </sheetData>
@@ -8259,28 +8259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.2956210417039</v>
+        <v>158.6997947317537</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.9113346085773</v>
+        <v>217.1400604927014</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.5085686389642</v>
+        <v>196.4165178773291</v>
       </c>
       <c r="AD2" t="n">
-        <v>110295.6210417039</v>
+        <v>158699.7947317536</v>
       </c>
       <c r="AE2" t="n">
-        <v>150911.3346085773</v>
+        <v>217140.0604927014</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.323427157726604e-06</v>
+        <v>4.990739428623486e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.973958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>136508.5686389642</v>
+        <v>196416.5178773291</v>
       </c>
     </row>
     <row r="3">
@@ -8365,28 +8365,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.19187554172943</v>
+        <v>135.585580853152</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.2457236852983</v>
+        <v>185.5141733368668</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.8152546178293</v>
+        <v>167.8089610044259</v>
       </c>
       <c r="AD3" t="n">
-        <v>95191.87554172943</v>
+        <v>135585.5808531519</v>
       </c>
       <c r="AE3" t="n">
-        <v>130245.7236852983</v>
+        <v>185514.1733368668</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.732546190147811e-06</v>
+        <v>5.605107184919222e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.880208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>117815.2546178293</v>
+        <v>167808.9610044259</v>
       </c>
     </row>
     <row r="4">
@@ -8471,28 +8471,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.87940243493264</v>
+        <v>135.2731077463552</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.8181841952386</v>
+        <v>185.0866338468071</v>
       </c>
       <c r="AC4" t="n">
-        <v>117.4285188966453</v>
+        <v>167.4222252832419</v>
       </c>
       <c r="AD4" t="n">
-        <v>94879.40243493265</v>
+        <v>135273.1077463552</v>
       </c>
       <c r="AE4" t="n">
-        <v>129818.1841952386</v>
+        <v>185086.6338468071</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.744585840638399e-06</v>
+        <v>5.623186942819296e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.854166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>117428.5188966453</v>
+        <v>167422.2252832419</v>
       </c>
     </row>
   </sheetData>
@@ -8768,28 +8768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.6780320531375</v>
+        <v>132.1108895300099</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.7521250563466</v>
+        <v>180.7599473759838</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.6052555773276</v>
+        <v>163.5084716966501</v>
       </c>
       <c r="AD2" t="n">
-        <v>100678.0320531375</v>
+        <v>132110.8895300099</v>
       </c>
       <c r="AE2" t="n">
-        <v>137752.1250563466</v>
+        <v>180759.9473759838</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.750280352017062e-06</v>
+        <v>5.751980297301187e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.205729166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>124605.2555773276</v>
+        <v>163508.4716966501</v>
       </c>
     </row>
     <row r="3">
@@ -8874,28 +8874,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.19024787125855</v>
+        <v>129.3958669770886</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.4022760503238</v>
+        <v>177.0451337407373</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.6249360202955</v>
+        <v>160.1481946609767</v>
       </c>
       <c r="AD3" t="n">
-        <v>90190.24787125854</v>
+        <v>129395.8669770886</v>
       </c>
       <c r="AE3" t="n">
-        <v>123402.2760503238</v>
+        <v>177045.1337407373</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.937631305880828e-06</v>
+        <v>6.039329213689628e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.763020833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>111624.9360202955</v>
+        <v>160148.1946609766</v>
       </c>
     </row>
   </sheetData>
@@ -15352,28 +15352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.01822197190863</v>
+        <v>125.2741815677935</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.0621702749291</v>
+        <v>171.4056619278157</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.6990438487264</v>
+        <v>155.0469461228301</v>
       </c>
       <c r="AD2" t="n">
-        <v>87018.22197190863</v>
+        <v>125274.1815677935</v>
       </c>
       <c r="AE2" t="n">
-        <v>119062.1702749291</v>
+        <v>171405.6619278157</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.025628506461485e-06</v>
+        <v>6.289965134352211e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.8671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>107699.0438487264</v>
+        <v>155046.9461228301</v>
       </c>
     </row>
     <row r="3">
@@ -15458,28 +15458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.99872660911902</v>
+        <v>125.2546862050039</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.0354958594857</v>
+        <v>171.3789875123723</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.6749152020551</v>
+        <v>155.0228174761588</v>
       </c>
       <c r="AD3" t="n">
-        <v>86998.72660911902</v>
+        <v>125254.6862050039</v>
       </c>
       <c r="AE3" t="n">
-        <v>119035.4958594857</v>
+        <v>171378.9875123723</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.041619004715686e-06</v>
+        <v>6.314949972455974e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.841145833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>107674.9152020551</v>
+        <v>155022.8174761588</v>
       </c>
     </row>
   </sheetData>
@@ -15755,28 +15755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.06856626933424</v>
+        <v>124.356754864565</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.4992976805862</v>
+        <v>170.1503982384495</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.999013831809</v>
+        <v>153.9114830382029</v>
       </c>
       <c r="AD2" t="n">
-        <v>88068.56626933425</v>
+        <v>124356.754864565</v>
       </c>
       <c r="AE2" t="n">
-        <v>120499.2976805862</v>
+        <v>170150.3982384495</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.083334835715453e-06</v>
+        <v>6.654513325203418e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.388020833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>108999.013831809</v>
+        <v>153911.4830382029</v>
       </c>
     </row>
   </sheetData>
@@ -16052,28 +16052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.4200519428036</v>
+        <v>178.1178849235585</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.7099805609083</v>
+        <v>243.7087481587942</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.9404666267308</v>
+        <v>220.4495272819659</v>
       </c>
       <c r="AD2" t="n">
-        <v>128420.0519428036</v>
+        <v>178117.8849235585</v>
       </c>
       <c r="AE2" t="n">
-        <v>175709.9805609083</v>
+        <v>243708.7481587942</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.963383378848186e-06</v>
+        <v>4.37804572108032e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.8203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>158940.4666267308</v>
+        <v>220449.5272819659</v>
       </c>
     </row>
     <row r="3">
@@ -16158,28 +16158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.940395961043</v>
+        <v>152.2557819565563</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.7935440986784</v>
+        <v>208.3230779239012</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.3065812935191</v>
+        <v>188.4410157501797</v>
       </c>
       <c r="AD3" t="n">
-        <v>110940.395961043</v>
+        <v>152255.7819565563</v>
       </c>
       <c r="AE3" t="n">
-        <v>151793.5440986784</v>
+        <v>208323.0779239012</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.424623296125232e-06</v>
+        <v>5.059472721258438e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.361979166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>137306.5812935191</v>
+        <v>188441.0157501797</v>
       </c>
     </row>
     <row r="4">
@@ -16264,28 +16264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.15101398084178</v>
+        <v>140.5516513223756</v>
       </c>
       <c r="AB4" t="n">
-        <v>135.6627915625498</v>
+        <v>192.3089700404218</v>
       </c>
       <c r="AC4" t="n">
-        <v>122.7153251397801</v>
+        <v>173.9552718471529</v>
       </c>
       <c r="AD4" t="n">
-        <v>99151.01398084179</v>
+        <v>140551.6513223756</v>
       </c>
       <c r="AE4" t="n">
-        <v>135662.7915625498</v>
+        <v>192308.9700404218</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.571451951937365e-06</v>
+        <v>5.276394558945244e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.971354166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>122715.3251397801</v>
+        <v>173955.2718471529</v>
       </c>
     </row>
     <row r="5">
@@ -16370,28 +16370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>98.7668431765255</v>
+        <v>140.1674805180593</v>
       </c>
       <c r="AB5" t="n">
-        <v>135.1371521196648</v>
+        <v>191.7833305975368</v>
       </c>
       <c r="AC5" t="n">
-        <v>122.2398519875843</v>
+        <v>173.4797986949571</v>
       </c>
       <c r="AD5" t="n">
-        <v>98766.84317652549</v>
+        <v>140167.4805180593</v>
       </c>
       <c r="AE5" t="n">
-        <v>135137.1521196648</v>
+        <v>191783.3305975368</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.59651425435466e-06</v>
+        <v>5.313421123459859e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.919270833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>122239.8519875843</v>
+        <v>173479.7986949571</v>
       </c>
     </row>
   </sheetData>
@@ -16667,28 +16667,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.7505667298395</v>
+        <v>210.8392124280581</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.5777730972705</v>
+        <v>288.4795120135161</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.717017208761</v>
+        <v>260.947432270569</v>
       </c>
       <c r="AD2" t="n">
-        <v>159750.5667298395</v>
+        <v>210839.2124280581</v>
       </c>
       <c r="AE2" t="n">
-        <v>218577.7730972705</v>
+        <v>288479.512013516</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.567129071096263e-06</v>
+        <v>3.727905296165973e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>197717.017208761</v>
+        <v>260947.432270569</v>
       </c>
     </row>
     <row r="3">
@@ -16773,28 +16773,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.1071119534873</v>
+        <v>171.6667748109994</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.6500463784737</v>
+        <v>234.8820546999034</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.7908138820587</v>
+        <v>212.4652410584467</v>
       </c>
       <c r="AD3" t="n">
-        <v>129107.1119534873</v>
+        <v>171666.7748109994</v>
       </c>
       <c r="AE3" t="n">
-        <v>176650.0463784737</v>
+        <v>234882.0546999034</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.082244020136668e-06</v>
+        <v>4.475939264649665e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.02604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>159790.8138820587</v>
+        <v>212465.2410584467</v>
       </c>
     </row>
     <row r="4">
@@ -16879,28 +16879,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.1500506453996</v>
+        <v>158.6243726483401</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.9216234715554</v>
+        <v>217.0368646707875</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.7543667753732</v>
+        <v>196.3231709198224</v>
       </c>
       <c r="AD4" t="n">
-        <v>116150.0506453996</v>
+        <v>158624.3726483401</v>
       </c>
       <c r="AE4" t="n">
-        <v>158921.6234715554</v>
+        <v>217036.8646707875</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.267621821997384e-06</v>
+        <v>4.745139164697174e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>143754.3667753732</v>
+        <v>196323.1709198224</v>
       </c>
     </row>
     <row r="5">
@@ -16985,28 +16985,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.3235334997771</v>
+        <v>147.4395543711543</v>
       </c>
       <c r="AB5" t="n">
-        <v>155.0542580157808</v>
+        <v>201.7333028645924</v>
       </c>
       <c r="AC5" t="n">
-        <v>140.256097250815</v>
+        <v>182.4801595737218</v>
       </c>
       <c r="AD5" t="n">
-        <v>113323.5334997771</v>
+        <v>147439.5543711543</v>
       </c>
       <c r="AE5" t="n">
-        <v>155054.2580157808</v>
+        <v>201733.3028645924</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.368661501818831e-06</v>
+        <v>4.891865857082936e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>140256.097250815</v>
+        <v>182480.1595737218</v>
       </c>
     </row>
     <row r="6">
@@ -17091,28 +17091,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>112.5851318045904</v>
+        <v>146.7011526759675</v>
       </c>
       <c r="AB6" t="n">
-        <v>154.0439442404431</v>
+        <v>200.7229890892547</v>
       </c>
       <c r="AC6" t="n">
-        <v>139.342206404211</v>
+        <v>181.5662687271177</v>
       </c>
       <c r="AD6" t="n">
-        <v>112585.1318045904</v>
+        <v>146701.1526759675</v>
       </c>
       <c r="AE6" t="n">
-        <v>154043.9442404431</v>
+        <v>200722.9890892547</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.387094897268764e-06</v>
+        <v>4.918634262808162e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.114583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>139342.206404211</v>
+        <v>181566.2687271177</v>
       </c>
     </row>
   </sheetData>
@@ -17388,28 +17388,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.62418464282432</v>
+        <v>128.1172531481088</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.7324957188904</v>
+        <v>175.295677891467</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.6373241976878</v>
+        <v>158.5657044225834</v>
       </c>
       <c r="AD2" t="n">
-        <v>92624.18464282432</v>
+        <v>128117.2531481088</v>
       </c>
       <c r="AE2" t="n">
-        <v>126732.4957188904</v>
+        <v>175295.677891467</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.883135377396732e-06</v>
+        <v>6.472955320635391e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.22135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>114637.3241976878</v>
+        <v>158565.7044225834</v>
       </c>
     </row>
   </sheetData>
@@ -17685,28 +17685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.7503102046774</v>
+        <v>143.292422883164</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.9557515626274</v>
+        <v>196.0590146041982</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.4076938696772</v>
+        <v>177.3474174209842</v>
       </c>
       <c r="AD2" t="n">
-        <v>103750.3102046774</v>
+        <v>143292.422883164</v>
       </c>
       <c r="AE2" t="n">
-        <v>141955.7515626274</v>
+        <v>196059.0146041982</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.611197489448331e-06</v>
+        <v>5.495905371536708e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.427083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>128407.6938696772</v>
+        <v>177347.4174209842</v>
       </c>
     </row>
     <row r="3">
@@ -17791,28 +17791,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.75165893118238</v>
+        <v>131.3790229556896</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.5386675471048</v>
+        <v>179.7585752413248</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.5574333110687</v>
+        <v>162.602669113088</v>
       </c>
       <c r="AD3" t="n">
-        <v>91751.65893118238</v>
+        <v>131379.0229556896</v>
       </c>
       <c r="AE3" t="n">
-        <v>125538.6675471048</v>
+        <v>179758.5752413248</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.868897550502573e-06</v>
+        <v>5.888100800873282e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.7890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>113557.4333110687</v>
+        <v>162602.669113088</v>
       </c>
     </row>
   </sheetData>
@@ -18088,28 +18088,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.681194453434</v>
+        <v>162.4270488725688</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.4895784465472</v>
+        <v>222.2398540430096</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.6000467492457</v>
+        <v>201.0295942888027</v>
       </c>
       <c r="AD2" t="n">
-        <v>121681.194453434</v>
+        <v>162427.0488725688</v>
       </c>
       <c r="AE2" t="n">
-        <v>166489.5784465472</v>
+        <v>222239.8540430095</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.200675854794479e-06</v>
+        <v>4.77832321171861e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>150600.0467492457</v>
+        <v>201029.5942888027</v>
       </c>
     </row>
     <row r="3">
@@ -18194,28 +18194,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.8088628973987</v>
+        <v>138.4738370180741</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.7723541737427</v>
+        <v>189.4660128425804</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.9554838807151</v>
+        <v>171.383642494157</v>
       </c>
       <c r="AD3" t="n">
-        <v>105808.8628973987</v>
+        <v>138473.8370180741</v>
       </c>
       <c r="AE3" t="n">
-        <v>144772.3541737427</v>
+        <v>189466.0128425804</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.63025845056078e-06</v>
+        <v>5.419651662903573e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.0234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>130955.4838807151</v>
+        <v>171383.642494157</v>
       </c>
     </row>
     <row r="4">
@@ -18300,28 +18300,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>96.24209166649295</v>
+        <v>136.9878565770767</v>
       </c>
       <c r="AB4" t="n">
-        <v>131.6826757194645</v>
+        <v>187.4328288463785</v>
       </c>
       <c r="AC4" t="n">
-        <v>119.1150659666299</v>
+        <v>169.5445027249604</v>
       </c>
       <c r="AD4" t="n">
-        <v>96242.09166649295</v>
+        <v>136987.8565770767</v>
       </c>
       <c r="AE4" t="n">
-        <v>131682.6757194645</v>
+        <v>187432.8288463785</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.687915141402049e-06</v>
+        <v>5.505727953242388e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.880208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>119115.0659666299</v>
+        <v>169544.5027249604</v>
       </c>
     </row>
   </sheetData>
